--- a/toplevel/Test_Setup.xlsx
+++ b/toplevel/Test_Setup.xlsx
@@ -5,32 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afan\Documents\commercial-radio-test-suite\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afan\Documents\commercial-radio-test-suite\toplevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD41820-B53B-442A-BE01-2C7360B0271F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573DFEB-40BA-4977-A1E9-4A22698ADC91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="933" activeTab="1" xr2:uid="{22AF6AA4-A614-41A9-982C-907FF5200154}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="933" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Freq_Error_Power" sheetId="12" r:id="rId1"/>
-    <sheet name="Max_Deviation" sheetId="13" r:id="rId2"/>
-    <sheet name="Cond_Spurious_1" sheetId="4" r:id="rId3"/>
-    <sheet name="Cond_Spurious_2" sheetId="3" r:id="rId4"/>
-    <sheet name="Cond_Spurious_3" sheetId="1" r:id="rId5"/>
-    <sheet name="Cond_Spurious_4" sheetId="5" r:id="rId6"/>
-    <sheet name="Cond_Spurious_5" sheetId="6" r:id="rId7"/>
-    <sheet name="ACP" sheetId="2" r:id="rId8"/>
-    <sheet name="Analog_Demod" sheetId="7" r:id="rId9"/>
-    <sheet name="ACS" sheetId="8" r:id="rId10"/>
-    <sheet name="Blocking" sheetId="9" r:id="rId11"/>
-    <sheet name="Spurious_Response" sheetId="11" r:id="rId12"/>
+    <sheet name="Release" sheetId="1" r:id="rId1"/>
+    <sheet name="Freq_Error_Power" sheetId="2" r:id="rId2"/>
+    <sheet name="Max_Deviation" sheetId="3" r:id="rId3"/>
+    <sheet name="Cond_Spurious_1" sheetId="4" r:id="rId4"/>
+    <sheet name="Cond_Spurious_2" sheetId="5" r:id="rId5"/>
+    <sheet name="Cond_Spurious_3" sheetId="6" r:id="rId6"/>
+    <sheet name="Cond_Spurious_4" sheetId="7" r:id="rId7"/>
+    <sheet name="Cond_Spurious_5" sheetId="8" r:id="rId8"/>
+    <sheet name="ACP" sheetId="9" r:id="rId9"/>
+    <sheet name="OOB" sheetId="10" r:id="rId10"/>
+    <sheet name="Analog_Demod" sheetId="11" r:id="rId11"/>
+    <sheet name="ACS" sheetId="12" r:id="rId12"/>
+    <sheet name="Blocking" sheetId="13" r:id="rId13"/>
+    <sheet name="Spurious_Response" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,7 +40,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="76">
+  <si>
+    <t>Release1.0</t>
+  </si>
+  <si>
+    <t>Centre_frequency</t>
+  </si>
+  <si>
+    <t>459.075</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>Span_frequency</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
   <si>
     <t>RBW</t>
   </si>
@@ -55,139 +72,160 @@
     <t>Attenuation</t>
   </si>
   <si>
+    <t>RefLev_offset</t>
+  </si>
+  <si>
     <t>Trace_peak</t>
   </si>
   <si>
+    <t>DET POS</t>
+  </si>
+  <si>
+    <t>Transducer1</t>
+  </si>
+  <si>
+    <t>HSA029914302</t>
+  </si>
+  <si>
+    <t>Trans1_ON?</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Transducer2</t>
+  </si>
+  <si>
+    <t>PE7388-30-30DB</t>
+  </si>
+  <si>
+    <t>Trans2_ON?</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Transducer3</t>
+  </si>
+  <si>
+    <t>NHP-700</t>
+  </si>
+  <si>
+    <t>Trans3_ON?</t>
+  </si>
+  <si>
+    <t>Limit_line_1</t>
+  </si>
+  <si>
+    <t>ASNZS4365_CONSPUR_TX</t>
+  </si>
+  <si>
+    <t>Limit_line_1_ON?</t>
+  </si>
+  <si>
+    <t>Limit_line_2</t>
+  </si>
+  <si>
+    <t>ASNZS4295_CONSPUR_TX</t>
+  </si>
+  <si>
+    <t>Limit_line_2_ON?</t>
+  </si>
+  <si>
+    <t>Sweep_points</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>SML</t>
+  </si>
+  <si>
+    <t>Frequency_AF</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
+  <si>
+    <t>Dev_PerDivision</t>
+  </si>
+  <si>
+    <t>Level_AF</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>Demod_BW</t>
+  </si>
+  <si>
+    <t>AF_output_on</t>
+  </si>
+  <si>
+    <t>AF_Couple</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>attenuation</t>
+  </si>
+  <si>
+    <t>RF_leveloffset</t>
+  </si>
+  <si>
+    <t>Demod_MT</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Cont_sweep</t>
+  </si>
+  <si>
     <t>Start_frequency</t>
   </si>
   <si>
     <t>Stop_frequency</t>
   </si>
   <si>
-    <t>Transducer1</t>
-  </si>
-  <si>
-    <t>Transducer2</t>
-  </si>
-  <si>
-    <t>Transducer3</t>
-  </si>
-  <si>
-    <t>DET POS</t>
-  </si>
-  <si>
     <t>CXTA40A-6A</t>
   </si>
   <si>
-    <t>PE7388-30-30DB</t>
-  </si>
-  <si>
-    <t>ASNZS4365_CONSPUR_TX</t>
-  </si>
-  <si>
-    <t>MHz</t>
-  </si>
-  <si>
-    <t>kHz</t>
-  </si>
-  <si>
-    <t>Sweep_points</t>
-  </si>
-  <si>
-    <t>NHP-700</t>
-  </si>
-  <si>
-    <t>Trans1_ON?</t>
-  </si>
-  <si>
-    <t>Trans2_ON?</t>
-  </si>
-  <si>
-    <t>Trans3_ON?</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>RefLev_offset</t>
+    <t>Trace_RMS</t>
+  </si>
+  <si>
+    <t>DET RMS</t>
+  </si>
+  <si>
+    <t>Tx_CHBW</t>
+  </si>
+  <si>
+    <t>AJ_CHBW</t>
+  </si>
+  <si>
+    <t>AT_CHBW</t>
+  </si>
+  <si>
+    <t>AJ_CHNUM</t>
+  </si>
+  <si>
+    <t>AJ_SPACE</t>
+  </si>
+  <si>
+    <t>AT_SPACE</t>
+  </si>
+  <si>
+    <t>Power_mode</t>
   </si>
   <si>
     <t>ABS</t>
   </si>
   <si>
-    <t>Centre_frequency</t>
-  </si>
-  <si>
-    <t>Span_frequency</t>
-  </si>
-  <si>
-    <t>RF_leveloffset</t>
-  </si>
-  <si>
-    <t>Trace_RMS</t>
-  </si>
-  <si>
-    <t>Tx_CHBW</t>
-  </si>
-  <si>
-    <t>AJ_CHBW</t>
-  </si>
-  <si>
-    <t>AT_CHBW</t>
-  </si>
-  <si>
-    <t>AJ_CHNUM</t>
-  </si>
-  <si>
-    <t>AJ_SPACE</t>
-  </si>
-  <si>
-    <t>AT_SPACE</t>
-  </si>
-  <si>
-    <t>Power_mode</t>
-  </si>
-  <si>
     <t>Trace_ave_number</t>
   </si>
   <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>Demod_BW</t>
-  </si>
-  <si>
-    <t>attenuation</t>
-  </si>
-  <si>
-    <t>Demod_MT</t>
-  </si>
-  <si>
-    <t>Cont_sweep</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>Limit_line_1</t>
-  </si>
-  <si>
-    <t>Limit_line_1_ON?</t>
-  </si>
-  <si>
-    <t>Limit_line_2</t>
-  </si>
-  <si>
-    <t>Limit_line_2_ON?</t>
-  </si>
-  <si>
-    <t>ASNZS4295_CONSPUR_TX</t>
-  </si>
-  <si>
-    <t>SML</t>
+    <t>0</t>
   </si>
   <si>
     <t>Frequency_RF</t>
@@ -199,9 +237,6 @@
     <t>dBuV</t>
   </si>
   <si>
-    <t>Frequency_AF</t>
-  </si>
-  <si>
     <t>Deviation</t>
   </si>
   <si>
@@ -214,49 +249,25 @@
     <t>SMB</t>
   </si>
   <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>1MHz</t>
+  </si>
+  <si>
+    <t>2MHz</t>
+  </si>
+  <si>
+    <t>5MHz</t>
+  </si>
+  <si>
+    <t>10MHz</t>
+  </si>
+  <si>
     <t>fisrt IF</t>
   </si>
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>HSA029914302</t>
-  </si>
-  <si>
-    <t>1MHz</t>
-  </si>
-  <si>
-    <t>2MHz</t>
-  </si>
-  <si>
-    <t>5MHz</t>
-  </si>
-  <si>
-    <t>10MHz</t>
-  </si>
-  <si>
-    <t>OFFSET</t>
-  </si>
-  <si>
-    <t>Dev_PerDivision</t>
-  </si>
-  <si>
-    <t>AF_Couple</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>DET RMS</t>
-  </si>
-  <si>
-    <t>Level_AF</t>
-  </si>
-  <si>
-    <t>AF_output_on</t>
-  </si>
-  <si>
-    <t>mV</t>
   </si>
 </sst>
 </file>
@@ -298,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -307,6 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,11 +632,835 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFFB0D3-97CA-4281-A30E-CF183A89EDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>43595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>459.07499999999999</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>15.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>459.08749999999998</v>
+      </c>
+      <c r="D8">
+        <v>459.0625</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>C1+0.0125</f>
+        <v>459.08749999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <f>C1-0.0125</f>
+        <v>459.0625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>15.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>460.07499999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>460.07499999999999</v>
+      </c>
+      <c r="F8">
+        <v>461.07499999999999</v>
+      </c>
+      <c r="G8">
+        <v>464.07499999999999</v>
+      </c>
+      <c r="H8">
+        <v>469.07499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>458.07499999999999</v>
+      </c>
+      <c r="F9">
+        <v>457.07499999999999</v>
+      </c>
+      <c r="G9">
+        <v>454.07499999999999</v>
+      </c>
+      <c r="H9">
+        <v>449.07499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <f>C1+1</f>
+        <v>460.07499999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <f>C1+2</f>
+        <v>461.07499999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <f>C1+5</f>
+        <v>464.07499999999999</v>
+      </c>
+      <c r="P21" s="1">
+        <f>C1+10</f>
+        <v>469.07499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <f>C1-1</f>
+        <v>458.07499999999999</v>
+      </c>
+      <c r="N22" s="1">
+        <f>C1-2</f>
+        <v>457.07499999999999</v>
+      </c>
+      <c r="O22" s="1">
+        <f>C1-5</f>
+        <v>454.07499999999999</v>
+      </c>
+      <c r="P22" s="1">
+        <f>C1-10</f>
+        <v>449.07499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>15.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>381.375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>38.85</v>
+      </c>
+      <c r="G8">
+        <f>C1-2*F8</f>
+        <v>381.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,51 +1471,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>459.07499999999999</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -687,7 +1523,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>35</v>
@@ -695,7 +1531,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>30.3</v>
@@ -703,34 +1539,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,60 +1574,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>10001</v>
@@ -802,520 +1638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0DCA6F-2285-4D44-B80E-74E3BD4C7418}">
-  <dimension ref="A1:F13"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1">
-        <v>459.07499999999999</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>15.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>459.08749999999998</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <f>C1+0.0125</f>
-        <v>459.08749999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <f>C1-0.0125</f>
-        <v>459.0625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
-        <v>1.5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9F350-D199-4A4E-B78D-661C9E11B462}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1">
-        <v>459.07499999999999</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>15.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>469.07499999999999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
-        <f>C1+1</f>
-        <v>460.07499999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <f>C1+2</f>
-        <v>461.07499999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <f>C1+5</f>
-        <v>464.07499999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <f>C1+10</f>
-        <v>469.07499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1">
-        <f>C1-1</f>
-        <v>458.07499999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <f>C1-2</f>
-        <v>457.07499999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <f>C1-5</f>
-        <v>454.07499999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <f>C1-10</f>
-        <v>449.07499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
-        <v>1.5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF75996-E124-481C-98C8-DBBB1F7B3C21}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1">
-        <v>459.07499999999999</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>15.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>381.375</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>38.85</v>
-      </c>
-      <c r="G8">
-        <f>C1-2*F8</f>
-        <v>381.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
-        <v>1.5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BE7F77-CFDB-4752-8C5D-50085C774468}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,45 +1656,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
-        <v>459.07499999999999</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1377,29 +1705,29 @@
         <v>12.5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
@@ -1409,7 +1737,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -1419,7 +1747,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>30.5</v>
@@ -1427,29 +1755,29 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1460,8 +1788,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935D4145-4134-4FC3-8F63-D6C4D89CEE2E}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1476,51 +1804,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>0.15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -1528,7 +1856,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -1536,7 +1864,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1544,34 +1872,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,60 +1907,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>5001</v>
@@ -1643,8 +1971,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BD9310-3549-4CD6-8581-75AEAE5B04CC}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1659,51 +1987,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>0.15</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -1711,7 +2039,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -1719,7 +2047,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1727,34 +2055,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,60 +2090,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>5001</v>
@@ -1826,8 +2154,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBDF0A7-00AC-494E-9889-9F5659D5ECF1}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1842,51 +2170,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
@@ -1894,7 +2222,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -1902,7 +2230,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>30</v>
@@ -1910,34 +2238,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,60 +2273,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>10001</v>
@@ -2009,8 +2337,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EECC1C-6519-460B-86B6-222BB0EC93AA}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2025,51 +2353,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>700</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2077,7 +2405,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -2085,7 +2413,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2093,34 +2421,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2128,60 +2456,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>20001</v>
@@ -2192,8 +2520,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE6BE9-0045-4E41-A160-7C4F8A470090}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2208,51 +2536,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>1000</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>4000</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>3000</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>-10</v>
@@ -2260,7 +2588,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2268,7 +2596,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2276,34 +2604,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2311,60 +2639,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>30001</v>
@@ -2375,287 +2703,281 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532FEE36-DC31-4E47-A817-598257EB3993}">
-  <dimension ref="A1:C17"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="J1" sqref="J1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
-        <v>459.07499999999999</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>62.4</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>12.5</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F377FBA-DBF4-48D9-B809-09DCB62CA640}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
-        <v>459.07499999999999</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
